--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -4,24 +4,39 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user0</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
   </si>
 </sst>
 </file>
@@ -360,20 +375,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\MyGitFrameWork\BDD_Selenium_TestNG_Maven_CucumberReporting\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="2760"/>
   </bookViews>
@@ -12,11 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Admin - Personal View" guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -30,13 +38,10 @@
     <t>user0</t>
   </si>
   <si>
-    <t>mercury</t>
+    <t>demo</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
+    <t>john</t>
   </si>
 </sst>
 </file>
@@ -84,8 +89,81 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{86B65319-CAB9-4E3B-B536-F841FE5B90B3}" diskRevisions="1" revisionId="2" version="2">
+  <header guid="{4F7A7580-A11F-4516-BCB1-91E03E75B11F}" dateTime="2019-03-26T16:49:55" maxSheetId="4" userName="Admin" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{86B65319-CAB9-4E3B-B536-F841FE5B90B3}" dateTime="2019-03-26T17:30:47" maxSheetId="4" userName="Admin" r:id="rId2" minRId="1" maxRId="2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1" sId="1" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A3:XFD3" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>user0</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="B3" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="2" sId="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>Alex</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>john</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{86B65319-CAB9-4E3B-B536-F841FE5B90B3}" name="Admin" id="-949691630" dateTime="2019-03-26T16:49:55"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -131,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,35 +477,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}">
+      <selection activeCell="A3" sqref="A3:C3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -440,6 +502,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -452,6 +519,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\MyGitFrameWork\BDD_Selenium_TestNG_Maven_CucumberReporting\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="Admin - Personal View" guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
   </customWorkbookViews>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -35,13 +31,22 @@
     <t>user</t>
   </si>
   <si>
-    <t>user0</t>
-  </si>
-  <si>
     <t>demo</t>
   </si>
   <si>
     <t>john</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
   </si>
 </sst>
 </file>
@@ -94,76 +99,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{86B65319-CAB9-4E3B-B536-F841FE5B90B3}" diskRevisions="1" revisionId="2" version="2">
-  <header guid="{4F7A7580-A11F-4516-BCB1-91E03E75B11F}" dateTime="2019-03-26T16:49:55" maxSheetId="4" userName="Admin" r:id="rId1">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{86B65319-CAB9-4E3B-B536-F841FE5B90B3}" dateTime="2019-03-26T17:30:47" maxSheetId="4" userName="Admin" r:id="rId2" minRId="1" maxRId="2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="1" sId="1" ref="A3:XFD3" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A3:XFD3" start="0" length="0"/>
-    <rcc rId="0" sId="1">
-      <nc r="A3" t="inlineStr">
-        <is>
-          <t>user0</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="B3" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="1">
-      <nc r="C3" t="inlineStr">
-        <is>
-          <t>demo</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rcc rId="2" sId="1">
-    <oc r="B2" t="inlineStr">
-      <is>
-        <t>Alex</t>
-      </is>
-    </oc>
-    <nc r="B2" t="inlineStr">
-      <is>
-        <t>john</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{86B65319-CAB9-4E3B-B536-F841FE5B90B3}" name="Admin" id="-949691630" dateTime="2019-03-26T16:49:55"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,13 +409,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="4575"/>
+    <workbookView windowWidth="24000" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
   <customWorkbookViews>
-    <customWorkbookView name="Admin - Personal View" guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="Admin - Personal View" guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>user</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -28,19 +30,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>demo</t>
+    <t>user1</t>
   </si>
   <si>
     <t>john</t>
   </si>
   <si>
-    <t>user1</t>
+    <t>demo1</t>
   </si>
   <si>
     <t>user2</t>
+  </si>
+  <si>
+    <t>demo</t>
   </si>
   <si>
     <t>user3</t>
@@ -52,25 +54,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -78,24 +416,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -144,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,43 +1006,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -426,29 +1050,29 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -456,42 +1080,54 @@
     <customSheetView guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}">
       <selection activeCell="A3" sqref="A3:C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <headerFooter/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
     <customSheetView guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <headerFooter/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
     <customSheetView guid="{338E119F-9ECD-468B-8CFF-D14A5168FE1D}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <headerFooter/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>